--- a/result2Cr13/jxh0.3-1-jxw0.4-1.4-cw0.12-0.28normB极靴齿调整网格版.xlsx
+++ b/result2Cr13/jxh0.3-1-jxw0.4-1.4-cw0.12-0.28normB极靴齿调整网格版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,15 +71,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,20 +87,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,29 +101,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -145,16 +108,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,31 +145,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,11 +191,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -230,7 +223,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +307,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,115 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,42 +407,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -421,21 +414,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,21 +428,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +458,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -513,11 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,148 +519,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,11 +1008,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:I441"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1063,7 +1056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:9">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1092,7 +1085,7 @@
         <v>23.4455109435506</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1121,7 +1114,7 @@
         <v>22.1493556244839</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1150,7 +1143,7 @@
         <v>20.4541449953713</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:9">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1208,7 +1201,7 @@
         <v>17.4691012207023</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:9">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1237,7 +1230,7 @@
         <v>23.1999064383459</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:9">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1266,7 +1259,7 @@
         <v>22.6588842109617</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:9">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1295,7 +1288,7 @@
         <v>21.2216347998781</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:9">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1353,7 +1346,7 @@
         <v>18.3552294793232</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:9">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1382,7 +1375,7 @@
         <v>22.2351370612819</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:9">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1411,7 +1404,7 @@
         <v>22.6752599809186</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:9">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1440,7 +1433,7 @@
         <v>21.2491441401481</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:9">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1498,7 +1491,7 @@
         <v>18.6607025438639</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:9">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1527,7 +1520,7 @@
         <v>20.6452144150424</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:9">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1556,7 +1549,7 @@
         <v>21.719639267247</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:9">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1585,7 +1578,7 @@
         <v>20.8707312304092</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:9">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1643,7 +1636,7 @@
         <v>18.4927204894106</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:9">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1672,7 +1665,7 @@
         <v>18.8046488299924</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:9">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1701,7 +1694,7 @@
         <v>20.3356247021839</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:9">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1730,7 +1723,7 @@
         <v>20.2832365115101</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:9">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1788,7 +1781,7 @@
         <v>18.1850057168916</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:9">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1817,7 +1810,7 @@
         <v>17.4557278967081</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:9">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1846,7 +1839,7 @@
         <v>18.9914070121999</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:9">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1875,7 +1868,7 @@
         <v>19.5023275670372</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:9">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1933,7 +1926,7 @@
         <v>17.7826703324688</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:9">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1962,7 +1955,7 @@
         <v>16.8285582275174</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:9">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1991,7 +1984,7 @@
         <v>18.3241540164915</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:9">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2020,7 +2013,7 @@
         <v>18.6570726231399</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:9">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2078,7 +2071,7 @@
         <v>17.4108667674994</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:9">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2107,7 +2100,7 @@
         <v>15.3572296325536</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:9">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2136,7 +2129,7 @@
         <v>17.4576529712515</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:9">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2165,7 +2158,7 @@
         <v>17.6824832732753</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:9">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2223,7 +2216,7 @@
         <v>16.7122409195175</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:9">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2252,7 +2245,7 @@
         <v>14.3568998979554</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:9">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2281,7 +2274,7 @@
         <v>16.4058891714619</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:9">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2310,7 +2303,7 @@
         <v>16.8569723886233</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:9">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2368,7 +2361,7 @@
         <v>16.2608999964149</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:9">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2397,7 +2390,7 @@
         <v>13.7808334829122</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:9">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2426,7 +2419,7 @@
         <v>15.7213801042987</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:9">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2455,7 +2448,7 @@
         <v>16.1925766588278</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:9">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2513,7 +2506,7 @@
         <v>15.7350575907902</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:9">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2542,7 +2535,7 @@
         <v>12.6564867803731</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:9">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2571,7 +2564,7 @@
         <v>14.5604716632407</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:9">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2600,7 +2593,7 @@
         <v>14.9717267268398</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:9">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2658,7 +2651,7 @@
         <v>15.2233279942317</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:9">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2687,7 +2680,7 @@
         <v>23.6337951842689</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:9">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2716,7 +2709,7 @@
         <v>22.3350104149012</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:9">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2745,7 +2738,7 @@
         <v>20.6205859135594</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:9">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2803,7 +2796,7 @@
         <v>17.6059982746876</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:9">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2832,7 +2825,7 @@
         <v>23.2834476354759</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:9">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2861,7 +2854,7 @@
         <v>23.0358241442374</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:9">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2890,7 +2883,7 @@
         <v>21.5927499834066</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:9">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2948,7 +2941,7 @@
         <v>18.6677177610526</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:9">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2977,7 +2970,7 @@
         <v>22.3023074764988</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:9">
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3006,7 +2999,7 @@
         <v>23.2136908215233</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:9">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3035,7 +3028,7 @@
         <v>21.9147721424983</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:9">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3093,7 +3086,7 @@
         <v>19.2942552527378</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:9">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3122,7 +3115,7 @@
         <v>20.7913751213693</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:9">
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3151,7 +3144,7 @@
         <v>22.2915058085357</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:9">
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3180,7 +3173,7 @@
         <v>21.6996884359521</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:9">
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3238,7 +3231,7 @@
         <v>19.2625747448079</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:9">
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3267,7 +3260,7 @@
         <v>18.9736122752519</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:9">
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3296,7 +3289,7 @@
         <v>20.665816197394</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:9">
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3325,7 +3318,7 @@
         <v>21.2513644203444</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:9">
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3383,7 +3376,7 @@
         <v>19.1437784188839</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:9">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3412,7 +3405,7 @@
         <v>17.6519147250614</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:9">
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3441,7 +3434,7 @@
         <v>19.3182410516184</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:9">
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3470,7 +3463,7 @@
         <v>20.4530663408563</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:9">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3528,7 +3521,7 @@
         <v>18.9027507824607</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:9">
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3557,7 +3550,7 @@
         <v>17.0284983888611</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:9">
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3586,7 +3579,7 @@
         <v>18.6570815624597</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:9">
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3615,7 +3608,7 @@
         <v>19.2465430579648</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:9">
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3673,7 +3666,7 @@
         <v>18.5574520854939</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:9">
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3702,7 +3695,7 @@
         <v>15.5589213066184</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:9">
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3731,7 +3724,7 @@
         <v>17.8275951309081</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:9">
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3760,7 +3753,7 @@
         <v>18.2751485588226</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:9">
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3818,7 +3811,7 @@
         <v>17.9699379051219</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:9">
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3847,7 +3840,7 @@
         <v>14.5898920522167</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:9">
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3876,7 +3869,7 @@
         <v>16.80530276961</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:9">
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3905,7 +3898,7 @@
         <v>17.3623622631524</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:9">
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3963,7 +3956,7 @@
         <v>17.4617509001554</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:9">
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3992,7 +3985,7 @@
         <v>13.9912683933573</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:9">
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4021,7 +4014,7 @@
         <v>16.0635234672243</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:9">
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4050,7 +4043,7 @@
         <v>16.6403147379682</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:9">
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4108,7 +4101,7 @@
         <v>16.8802131929055</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:9">
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4137,7 +4130,7 @@
         <v>12.885910849569</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:9">
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4166,7 +4159,7 @@
         <v>14.9317272821272</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:9">
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4195,7 +4188,7 @@
         <v>15.3880929140643</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:9">
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4253,7 +4246,7 @@
         <v>16.5238438816671</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:9">
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4282,7 +4275,7 @@
         <v>23.6869387949045</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:9">
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4311,7 +4304,7 @@
         <v>22.3780551021942</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:9">
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4340,7 +4333,7 @@
         <v>20.6558732982213</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:9">
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4398,7 +4391,7 @@
         <v>17.6352478742621</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:9">
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4427,7 +4420,7 @@
         <v>23.2639800988973</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:9">
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4456,7 +4449,7 @@
         <v>23.1512172788946</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:9">
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4485,7 +4478,7 @@
         <v>21.7040800149113</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:9">
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4543,7 +4536,7 @@
         <v>18.7586103062419</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:9">
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4572,7 +4565,7 @@
         <v>22.093749553262</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:9">
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4601,7 +4594,7 @@
         <v>23.3674051929491</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:9">
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4630,7 +4623,7 @@
         <v>22.1266405247303</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:9">
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4688,7 +4681,7 @@
         <v>19.3879466047994</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:9">
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4717,7 +4710,7 @@
         <v>20.7908609212761</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:9">
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4746,7 +4739,7 @@
         <v>22.3673564266234</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:9">
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4775,7 +4768,7 @@
         <v>22.0277266972769</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:9">
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4833,7 +4826,7 @@
         <v>19.5749683113628</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:9">
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4862,7 +4855,7 @@
         <v>19.0062527536637</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:9">
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4891,7 +4884,7 @@
         <v>20.7408810573468</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:9">
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4920,7 +4913,7 @@
         <v>21.6324127484031</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:9">
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4978,7 +4971,7 @@
         <v>19.5724342424044</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:9">
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5007,7 +5000,7 @@
         <v>17.7022555169367</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:9">
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5036,7 +5029,7 @@
         <v>19.4090378641668</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:9">
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5065,7 +5058,7 @@
         <v>20.7022569239846</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:9">
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5123,7 +5116,7 @@
         <v>19.4423720909785</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:9">
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5152,7 +5145,7 @@
         <v>17.0717494191369</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:9">
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5181,7 +5174,7 @@
         <v>18.7490908149938</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:9">
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5210,7 +5203,7 @@
         <v>19.4004859421695</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:9">
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5268,7 +5261,7 @@
         <v>19.1222698051278</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:9">
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5297,7 +5290,7 @@
         <v>15.6247102642924</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:9">
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5326,7 +5319,7 @@
         <v>17.9542944809677</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:9">
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5355,7 +5348,7 @@
         <v>18.471475794239</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:9">
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5413,7 +5406,7 @@
         <v>18.604065710055</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:9">
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5442,7 +5435,7 @@
         <v>14.680961514374</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:9">
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5471,7 +5464,7 @@
         <v>16.9641566376184</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:9">
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5500,7 +5493,7 @@
         <v>17.5657877714825</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:9">
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5558,7 +5551,7 @@
         <v>18.0310198335937</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:9">
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5587,7 +5580,7 @@
         <v>14.0512624711191</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:9">
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5616,7 +5609,7 @@
         <v>16.1977532157517</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:9">
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5645,7 +5638,7 @@
         <v>16.8142286788712</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:9">
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5703,7 +5696,7 @@
         <v>17.2884484776444</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:9">
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5732,7 +5725,7 @@
         <v>12.9981636493476</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:9">
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5761,7 +5754,7 @@
         <v>15.10122312627</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:9">
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5790,7 +5783,7 @@
         <v>15.5875165313282</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:9">
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5848,7 +5841,7 @@
         <v>17.1076471002138</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:9">
+    <row r="167" spans="1:9">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5877,7 +5870,7 @@
         <v>23.6667665421807</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:9">
+    <row r="168" spans="1:9">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5906,7 +5899,7 @@
         <v>22.3872406837838</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:9">
+    <row r="169" spans="1:9">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5935,7 +5928,7 @@
         <v>20.6619824532827</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:9">
+    <row r="170" spans="1:9">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5993,7 +5986,7 @@
         <v>17.745481129037</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:9">
+    <row r="172" spans="1:9">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6022,7 +6015,7 @@
         <v>23.2291561247646</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:9">
+    <row r="173" spans="1:9">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6051,7 +6044,7 @@
         <v>23.1898249516631</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:9">
+    <row r="174" spans="1:9">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6080,7 +6073,7 @@
         <v>21.7370214507844</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:9">
+    <row r="175" spans="1:9">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6138,7 +6131,7 @@
         <v>18.7858775076253</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:9">
+    <row r="177" spans="1:9">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6167,7 +6160,7 @@
         <v>22.1563276012035</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:9">
+    <row r="178" spans="1:9">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6196,7 +6189,7 @@
         <v>23.3996001062019</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:9">
+    <row r="179" spans="1:9">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6225,7 +6218,7 @@
         <v>22.2032879399481</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:9">
+    <row r="180" spans="1:9">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6283,7 +6276,7 @@
         <v>19.4143660413687</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:9">
+    <row r="182" spans="1:9">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6312,7 +6305,7 @@
         <v>20.7551613887786</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:9">
+    <row r="183" spans="1:9">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6341,7 +6334,7 @@
         <v>22.3581138178037</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:9">
+    <row r="184" spans="1:9">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6370,7 +6363,7 @@
         <v>22.1624790099255</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:9">
+    <row r="185" spans="1:9">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6428,7 +6421,7 @@
         <v>19.7016591067257</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:9">
+    <row r="187" spans="1:9">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6457,7 +6450,7 @@
         <v>19.0032462817528</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:9">
+    <row r="188" spans="1:9">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6486,7 +6479,7 @@
         <v>20.7503334587946</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:9">
+    <row r="189" spans="1:9">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6515,7 +6508,7 @@
         <v>21.7590113262547</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:9">
+    <row r="190" spans="1:9">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6573,7 +6566,7 @@
         <v>19.7654128245048</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:9">
+    <row r="192" spans="1:9">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6602,7 +6595,7 @@
         <v>17.709618313469</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:9">
+    <row r="193" spans="1:9">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6631,7 +6624,7 @@
         <v>19.4297862918661</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:9">
+    <row r="194" spans="1:9">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6660,7 +6653,7 @@
         <v>20.7646120962727</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:9">
+    <row r="195" spans="1:9">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6718,7 +6711,7 @@
         <v>19.7051935927347</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:9">
+    <row r="197" spans="1:9">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6747,7 +6740,7 @@
         <v>17.0606877811455</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:9">
+    <row r="198" spans="1:9">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6776,7 +6769,7 @@
         <v>18.7663654336466</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:9">
+    <row r="199" spans="1:9">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6805,7 +6798,7 @@
         <v>19.4412218941934</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:9">
+    <row r="200" spans="1:9">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6863,7 +6856,7 @@
         <v>19.3987632496182</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:9">
+    <row r="202" spans="1:9">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6892,7 +6885,7 @@
         <v>15.640510609606</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:9">
+    <row r="203" spans="1:9">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6921,7 +6914,7 @@
         <v>17.9967816679387</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:9">
+    <row r="204" spans="1:9">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6950,7 +6943,7 @@
         <v>18.5519972849653</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:9">
+    <row r="205" spans="1:9">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7008,7 +7001,7 @@
         <v>18.9066087027887</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:9">
+    <row r="207" spans="1:9">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7037,7 +7030,7 @@
         <v>14.7237991281914</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:9">
+    <row r="208" spans="1:9">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7066,7 +7059,7 @@
         <v>17.0354228263965</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:9">
+    <row r="209" spans="1:9">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7095,7 +7088,7 @@
         <v>17.6626117745167</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:9">
+    <row r="210" spans="1:9">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7153,7 +7146,7 @@
         <v>18.2419458310993</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:9">
+    <row r="212" spans="1:9">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7182,7 +7175,7 @@
         <v>14.0671325425236</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:9">
+    <row r="213" spans="1:9">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7211,7 +7204,7 @@
         <v>16.2462797221376</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:9">
+    <row r="214" spans="1:9">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7240,7 +7233,7 @@
         <v>16.8865550930385</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:9">
+    <row r="215" spans="1:9">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7298,7 +7291,7 @@
         <v>17.4446126781018</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:9">
+    <row r="217" spans="1:9">
       <c r="A217">
         <v>216</v>
       </c>
@@ -7327,7 +7320,7 @@
         <v>13.0570752761369</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:9">
+    <row r="218" spans="1:9">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7356,7 +7349,7 @@
         <v>15.1847781093164</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:9">
+    <row r="219" spans="1:9">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7385,7 +7378,7 @@
         <v>15.6913567375509</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:9">
+    <row r="220" spans="1:9">
       <c r="A220">
         <v>219</v>
       </c>
@@ -7443,7 +7436,7 @@
         <v>17.3195338608928</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:9">
+    <row r="222" spans="1:9">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7472,7 +7465,7 @@
         <v>23.7112567242375</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:9">
+    <row r="223" spans="1:9">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7501,7 +7494,7 @@
         <v>22.3877973815797</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:9">
+    <row r="224" spans="1:9">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7530,7 +7523,7 @@
         <v>20.6619545095287</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:9">
+    <row r="225" spans="1:9">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7588,7 +7581,7 @@
         <v>17.6429505802091</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:9">
+    <row r="227" spans="1:9">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7617,7 +7610,7 @@
         <v>23.1966395590459</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:9">
+    <row r="228" spans="1:9">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7646,7 +7639,7 @@
         <v>23.2059176755554</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:9">
+    <row r="229" spans="1:9">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7675,7 +7668,7 @@
         <v>21.7450357743711</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:9">
+    <row r="230" spans="1:9">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7733,7 +7726,7 @@
         <v>18.7930705435982</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:9">
+    <row r="232" spans="1:9">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7762,7 +7755,7 @@
         <v>22.1959140933575</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:9">
+    <row r="233" spans="1:9">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7791,7 +7784,7 @@
         <v>23.3946992201166</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:9">
+    <row r="234" spans="1:9">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7820,7 +7813,7 @@
         <v>22.2324482663156</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:9">
+    <row r="235" spans="1:9">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7878,7 +7871,7 @@
         <v>19.4774692996761</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:9">
+    <row r="237" spans="1:9">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7907,7 +7900,7 @@
         <v>20.7128248636001</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:9">
+    <row r="238" spans="1:9">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7936,7 +7929,7 @@
         <v>22.3446766395873</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:9">
+    <row r="239" spans="1:9">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7965,7 +7958,7 @@
         <v>22.2191243584308</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:9">
+    <row r="240" spans="1:9">
       <c r="A240">
         <v>239</v>
       </c>
@@ -8023,7 +8016,7 @@
         <v>19.7534115884348</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:9">
+    <row r="242" spans="1:9">
       <c r="A242">
         <v>241</v>
       </c>
@@ -8052,7 +8045,7 @@
         <v>18.9874564722577</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:9">
+    <row r="243" spans="1:9">
       <c r="A243">
         <v>242</v>
       </c>
@@ -8081,7 +8074,7 @@
         <v>20.7380853613784</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:9">
+    <row r="244" spans="1:9">
       <c r="A244">
         <v>243</v>
       </c>
@@ -8110,7 +8103,7 @@
         <v>21.7849777098189</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:9">
+    <row r="245" spans="1:9">
       <c r="A245">
         <v>244</v>
       </c>
@@ -8168,7 +8161,7 @@
         <v>19.852593669755</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:9">
+    <row r="247" spans="1:9">
       <c r="A247">
         <v>246</v>
       </c>
@@ -8197,7 +8190,7 @@
         <v>17.7009150330023</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:9">
+    <row r="248" spans="1:9">
       <c r="A248">
         <v>247</v>
       </c>
@@ -8226,7 +8219,7 @@
         <v>19.4233980506104</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:9">
+    <row r="249" spans="1:9">
       <c r="A249">
         <v>248</v>
       </c>
@@ -8255,7 +8248,7 @@
         <v>20.7753016412177</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:9">
+    <row r="250" spans="1:9">
       <c r="A250">
         <v>249</v>
       </c>
@@ -8313,7 +8306,7 @@
         <v>19.8338999438547</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:9">
+    <row r="252" spans="1:9">
       <c r="A252">
         <v>251</v>
       </c>
@@ -8342,7 +8335,7 @@
         <v>17.0486729252401</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:9">
+    <row r="253" spans="1:9">
       <c r="A253">
         <v>252</v>
       </c>
@@ -8371,7 +8364,7 @@
         <v>18.7532617373984</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:9">
+    <row r="254" spans="1:9">
       <c r="A254">
         <v>253</v>
       </c>
@@ -8400,7 +8393,7 @@
         <v>19.4406070207358</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:9">
+    <row r="255" spans="1:9">
       <c r="A255">
         <v>254</v>
       </c>
@@ -8458,7 +8451,7 @@
         <v>19.5319181822845</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:9">
+    <row r="257" spans="1:9">
       <c r="A257">
         <v>256</v>
       </c>
@@ -8487,7 +8480,7 @@
         <v>15.6353392520621</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:9">
+    <row r="258" spans="1:9">
       <c r="A258">
         <v>257</v>
       </c>
@@ -8516,7 +8509,7 @@
         <v>18.0024796093246</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:9">
+    <row r="259" spans="1:9">
       <c r="A259">
         <v>258</v>
       </c>
@@ -8545,7 +8538,7 @@
         <v>18.5781678609323</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:9">
+    <row r="260" spans="1:9">
       <c r="A260">
         <v>259</v>
       </c>
@@ -8603,7 +8596,7 @@
         <v>19.0284818237399</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:9">
+    <row r="262" spans="1:9">
       <c r="A262">
         <v>261</v>
       </c>
@@ -8632,7 +8625,7 @@
         <v>14.7387083770532</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:9">
+    <row r="263" spans="1:9">
       <c r="A263">
         <v>262</v>
       </c>
@@ -8661,7 +8654,7 @@
         <v>17.0615199061345</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:9">
+    <row r="264" spans="1:9">
       <c r="A264">
         <v>263</v>
       </c>
@@ -8690,7 +8683,7 @@
         <v>17.698132990482</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:9">
+    <row r="265" spans="1:9">
       <c r="A265">
         <v>264</v>
       </c>
@@ -8748,7 +8741,7 @@
         <v>18.3198987345773</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:9">
+    <row r="267" spans="1:9">
       <c r="A267">
         <v>266</v>
       </c>
@@ -8777,7 +8770,7 @@
         <v>14.0572198162234</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:9">
+    <row r="268" spans="1:9">
       <c r="A268">
         <v>267</v>
       </c>
@@ -8806,7 +8799,7 @@
         <v>16.2554399365863</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:9">
+    <row r="269" spans="1:9">
       <c r="A269">
         <v>268</v>
       </c>
@@ -8835,7 +8828,7 @@
         <v>16.9089564667767</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:9">
+    <row r="270" spans="1:9">
       <c r="A270">
         <v>269</v>
       </c>
@@ -8893,7 +8886,7 @@
         <v>17.5125398155999</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:9">
+    <row r="272" spans="1:9">
       <c r="A272">
         <v>271</v>
       </c>
@@ -8922,7 +8915,7 @@
         <v>13.0844828704694</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:9">
+    <row r="273" spans="1:9">
       <c r="A273">
         <v>272</v>
       </c>
@@ -8951,7 +8944,7 @@
         <v>15.2290191999063</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:9">
+    <row r="274" spans="1:9">
       <c r="A274">
         <v>273</v>
       </c>
@@ -8980,7 +8973,7 @@
         <v>15.7413986283838</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:9">
+    <row r="275" spans="1:9">
       <c r="A275">
         <v>274</v>
       </c>
@@ -9038,7 +9031,7 @@
         <v>17.4187311754827</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:9">
+    <row r="277" spans="1:9">
       <c r="A277">
         <v>276</v>
       </c>
@@ -9067,7 +9060,7 @@
         <v>23.7240328252281</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:9">
+    <row r="278" spans="1:9">
       <c r="A278">
         <v>277</v>
       </c>
@@ -9096,7 +9089,7 @@
         <v>22.4039723710096</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:9">
+    <row r="279" spans="1:9">
       <c r="A279">
         <v>278</v>
       </c>
@@ -9125,7 +9118,7 @@
         <v>20.6722934875986</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:9">
+    <row r="280" spans="1:9">
       <c r="A280">
         <v>279</v>
       </c>
@@ -9183,7 +9176,7 @@
         <v>17.6425593830765</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:9">
+    <row r="282" spans="1:9">
       <c r="A282">
         <v>281</v>
       </c>
@@ -9212,7 +9205,7 @@
         <v>23.1870509839884</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:9">
+    <row r="283" spans="1:9">
       <c r="A283">
         <v>282</v>
       </c>
@@ -9241,7 +9234,7 @@
         <v>23.2284398456373</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:9">
+    <row r="284" spans="1:9">
       <c r="A284">
         <v>283</v>
       </c>
@@ -9270,7 +9263,7 @@
         <v>21.7580208650804</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:9">
+    <row r="285" spans="1:9">
       <c r="A285">
         <v>284</v>
       </c>
@@ -9328,7 +9321,7 @@
         <v>18.7954899001619</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:9">
+    <row r="287" spans="1:9">
       <c r="A287">
         <v>286</v>
       </c>
@@ -9357,7 +9350,7 @@
         <v>22.0913274235538</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:9">
+    <row r="288" spans="1:9">
       <c r="A288">
         <v>287</v>
       </c>
@@ -9386,7 +9379,7 @@
         <v>23.3984784066414</v>
       </c>
     </row>
-    <row r="289" hidden="1" spans="1:9">
+    <row r="289" spans="1:9">
       <c r="A289">
         <v>288</v>
       </c>
@@ -9415,7 +9408,7 @@
         <v>22.2448417663333</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:9">
+    <row r="290" spans="1:9">
       <c r="A290">
         <v>289</v>
       </c>
@@ -9473,7 +9466,7 @@
         <v>19.4385879103591</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:9">
+    <row r="292" spans="1:9">
       <c r="A292">
         <v>291</v>
       </c>
@@ -9502,7 +9495,7 @@
         <v>20.6703847294904</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:9">
+    <row r="293" spans="1:9">
       <c r="A293">
         <v>292</v>
       </c>
@@ -9531,7 +9524,7 @@
         <v>22.3263614317863</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:9">
+    <row r="294" spans="1:9">
       <c r="A294">
         <v>293</v>
       </c>
@@ -9560,7 +9553,7 @@
         <v>22.243095602687</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:9">
+    <row r="295" spans="1:9">
       <c r="A295">
         <v>294</v>
       </c>
@@ -9618,7 +9611,7 @@
         <v>19.7741597603928</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:9">
+    <row r="297" spans="1:9">
       <c r="A297">
         <v>296</v>
       </c>
@@ -9647,7 +9640,7 @@
         <v>18.9670760676993</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:9">
+    <row r="298" spans="1:9">
       <c r="A298">
         <v>297</v>
       </c>
@@ -9676,7 +9669,7 @@
         <v>20.7177879525741</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:9">
+    <row r="299" spans="1:9">
       <c r="A299">
         <v>298</v>
       </c>
@@ -9705,7 +9698,7 @@
         <v>21.7831996758794</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:9">
+    <row r="300" spans="1:9">
       <c r="A300">
         <v>299</v>
       </c>
@@ -9763,7 +9756,7 @@
         <v>19.8918532785772</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:9">
+    <row r="302" spans="1:9">
       <c r="A302">
         <v>301</v>
       </c>
@@ -9792,7 +9785,7 @@
         <v>17.6853582132289</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:9">
+    <row r="303" spans="1:9">
       <c r="A303">
         <v>302</v>
       </c>
@@ -9821,7 +9814,7 @@
         <v>19.4071945322545</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:9">
+    <row r="304" spans="1:9">
       <c r="A304">
         <v>303</v>
       </c>
@@ -9850,7 +9843,7 @@
         <v>20.7673388061663</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:9">
+    <row r="305" spans="1:9">
       <c r="A305">
         <v>304</v>
       </c>
@@ -9908,7 +9901,7 @@
         <v>19.8974259531532</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:9">
+    <row r="307" spans="1:9">
       <c r="A307">
         <v>306</v>
       </c>
@@ -9937,7 +9930,7 @@
         <v>17.0335332426728</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:9">
+    <row r="308" spans="1:9">
       <c r="A308">
         <v>307</v>
       </c>
@@ -9966,7 +9959,7 @@
         <v>18.7293103426572</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:9">
+    <row r="309" spans="1:9">
       <c r="A309">
         <v>308</v>
       </c>
@@ -9995,7 +9988,7 @@
         <v>19.4263483673701</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:9">
+    <row r="310" spans="1:9">
       <c r="A310">
         <v>309</v>
       </c>
@@ -10053,7 +10046,7 @@
         <v>19.594038962367</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:9">
+    <row r="312" spans="1:9">
       <c r="A312">
         <v>311</v>
       </c>
@@ -10082,7 +10075,7 @@
         <v>15.6163189733425</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="1:9">
+    <row r="313" spans="1:9">
       <c r="A313">
         <v>312</v>
       </c>
@@ -10111,7 +10104,7 @@
         <v>17.9927345401226</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:9">
+    <row r="314" spans="1:9">
       <c r="A314">
         <v>313</v>
       </c>
@@ -10140,7 +10133,7 @@
         <v>18.5808039053302</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="1:9">
+    <row r="315" spans="1:9">
       <c r="A315">
         <v>314</v>
       </c>
@@ -10198,7 +10191,7 @@
         <v>19.0662104018169</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:9">
+    <row r="317" spans="1:9">
       <c r="A317">
         <v>316</v>
       </c>
@@ -10227,7 +10220,7 @@
         <v>14.7398321857055</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:9">
+    <row r="318" spans="1:9">
       <c r="A318">
         <v>317</v>
       </c>
@@ -10256,7 +10249,7 @@
         <v>17.0671780193495</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="1:9">
+    <row r="319" spans="1:9">
       <c r="A319">
         <v>318</v>
       </c>
@@ -10285,7 +10278,7 @@
         <v>17.7079073896297</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:9">
+    <row r="320" spans="1:9">
       <c r="A320">
         <v>319</v>
       </c>
@@ -10343,7 +10336,7 @@
         <v>18.3501266051854</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:9">
+    <row r="322" spans="1:9">
       <c r="A322">
         <v>321</v>
       </c>
@@ -10372,7 +10365,7 @@
         <v>14.0395257351735</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:9">
+    <row r="323" spans="1:9">
       <c r="A323">
         <v>322</v>
       </c>
@@ -10401,7 +10394,7 @@
         <v>16.2459921943331</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="1:9">
+    <row r="324" spans="1:9">
       <c r="A324">
         <v>323</v>
       </c>
@@ -10430,7 +10423,7 @@
         <v>16.9079802946446</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="1:9">
+    <row r="325" spans="1:9">
       <c r="A325">
         <v>324</v>
       </c>
@@ -10488,7 +10481,7 @@
         <v>17.5402400115207</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:9">
+    <row r="327" spans="1:9">
       <c r="A327">
         <v>326</v>
       </c>
@@ -10517,7 +10510,7 @@
         <v>13.0982228363572</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="1:9">
+    <row r="328" spans="1:9">
       <c r="A328">
         <v>327</v>
       </c>
@@ -10546,7 +10539,7 @@
         <v>15.2471955833213</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:9">
+    <row r="329" spans="1:9">
       <c r="A329">
         <v>328</v>
       </c>
@@ -10575,7 +10568,7 @@
         <v>15.7637713281033</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:9">
+    <row r="330" spans="1:9">
       <c r="A330">
         <v>329</v>
       </c>
@@ -10633,7 +10626,7 @@
         <v>17.466227479831</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:9">
+    <row r="332" spans="1:9">
       <c r="A332">
         <v>331</v>
       </c>
@@ -10662,7 +10655,7 @@
         <v>23.6930699769059</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:9">
+    <row r="333" spans="1:9">
       <c r="A333">
         <v>332</v>
       </c>
@@ -10691,7 +10684,7 @@
         <v>22.3898041452788</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="1:9">
+    <row r="334" spans="1:9">
       <c r="A334">
         <v>333</v>
       </c>
@@ -10720,7 +10713,7 @@
         <v>20.6685287239667</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:9">
+    <row r="335" spans="1:9">
       <c r="A335">
         <v>334</v>
       </c>
@@ -10778,7 +10771,7 @@
         <v>17.6466147706804</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:9">
+    <row r="337" spans="1:9">
       <c r="A337">
         <v>336</v>
       </c>
@@ -10807,7 +10800,7 @@
         <v>23.1652515080292</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:9">
+    <row r="338" spans="1:9">
       <c r="A338">
         <v>337</v>
       </c>
@@ -10836,7 +10829,7 @@
         <v>23.226017573952</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:9">
+    <row r="339" spans="1:9">
       <c r="A339">
         <v>338</v>
       </c>
@@ -10865,7 +10858,7 @@
         <v>21.7553520042164</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:9">
+    <row r="340" spans="1:9">
       <c r="A340">
         <v>339</v>
       </c>
@@ -10923,7 +10916,7 @@
         <v>18.7989347202419</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:9">
+    <row r="342" spans="1:9">
       <c r="A342">
         <v>341</v>
       </c>
@@ -10952,7 +10945,7 @@
         <v>22.1444122193651</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="1:9">
+    <row r="343" spans="1:9">
       <c r="A343">
         <v>342</v>
       </c>
@@ -10981,7 +10974,7 @@
         <v>23.3838923614634</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="1:9">
+    <row r="344" spans="1:9">
       <c r="A344">
         <v>343</v>
       </c>
@@ -11010,7 +11003,7 @@
         <v>22.2586106532513</v>
       </c>
     </row>
-    <row r="345" hidden="1" spans="1:9">
+    <row r="345" spans="1:9">
       <c r="A345">
         <v>344</v>
       </c>
@@ -11068,7 +11061,7 @@
         <v>19.4448347212756</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:9">
+    <row r="347" spans="1:9">
       <c r="A347">
         <v>346</v>
       </c>
@@ -11097,7 +11090,7 @@
         <v>20.6594688572996</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:9">
+    <row r="348" spans="1:9">
       <c r="A348">
         <v>347</v>
       </c>
@@ -11126,7 +11119,7 @@
         <v>22.3219693433261</v>
       </c>
     </row>
-    <row r="349" hidden="1" spans="1:9">
+    <row r="349" spans="1:9">
       <c r="A349">
         <v>348</v>
       </c>
@@ -11155,7 +11148,7 @@
         <v>22.2651460721117</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:9">
+    <row r="350" spans="1:9">
       <c r="A350">
         <v>349</v>
       </c>
@@ -11213,7 +11206,7 @@
         <v>19.7848342734832</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="1:9">
+    <row r="352" spans="1:9">
       <c r="A352">
         <v>351</v>
       </c>
@@ -11242,7 +11235,7 @@
         <v>18.9590556268099</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:9">
+    <row r="353" spans="1:9">
       <c r="A353">
         <v>352</v>
       </c>
@@ -11271,7 +11264,7 @@
         <v>20.7089543106573</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:9">
+    <row r="354" spans="1:9">
       <c r="A354">
         <v>353</v>
       </c>
@@ -11300,7 +11293,7 @@
         <v>21.7830520356753</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="1:9">
+    <row r="355" spans="1:9">
       <c r="A355">
         <v>354</v>
       </c>
@@ -11358,7 +11351,7 @@
         <v>19.9121410480316</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="1:9">
+    <row r="357" spans="1:9">
       <c r="A357">
         <v>356</v>
       </c>
@@ -11387,7 +11380,7 @@
         <v>17.6786263678903</v>
       </c>
     </row>
-    <row r="358" hidden="1" spans="1:9">
+    <row r="358" spans="1:9">
       <c r="A358">
         <v>357</v>
       </c>
@@ -11416,7 +11409,7 @@
         <v>19.4000962818946</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="1:9">
+    <row r="359" spans="1:9">
       <c r="A359">
         <v>358</v>
       </c>
@@ -11445,7 +11438,7 @@
         <v>20.7616926433186</v>
       </c>
     </row>
-    <row r="360" hidden="1" spans="1:9">
+    <row r="360" spans="1:9">
       <c r="A360">
         <v>359</v>
       </c>
@@ -11503,7 +11496,7 @@
         <v>19.9311632744052</v>
       </c>
     </row>
-    <row r="362" hidden="1" spans="1:9">
+    <row r="362" spans="1:9">
       <c r="A362">
         <v>361</v>
       </c>
@@ -11532,7 +11525,7 @@
         <v>17.026443851562</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:9">
+    <row r="363" spans="1:9">
       <c r="A363">
         <v>362</v>
       </c>
@@ -11561,7 +11554,7 @@
         <v>18.7188243452117</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="1:9">
+    <row r="364" spans="1:9">
       <c r="A364">
         <v>363</v>
       </c>
@@ -11590,7 +11583,7 @@
         <v>19.4036354319429</v>
       </c>
     </row>
-    <row r="365" hidden="1" spans="1:9">
+    <row r="365" spans="1:9">
       <c r="A365">
         <v>364</v>
       </c>
@@ -11648,7 +11641,7 @@
         <v>19.6218592599464</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="1:9">
+    <row r="367" spans="1:9">
       <c r="A367">
         <v>366</v>
       </c>
@@ -11677,7 +11670,7 @@
         <v>15.6019179239527</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:9">
+    <row r="368" spans="1:9">
       <c r="A368">
         <v>367</v>
       </c>
@@ -11706,7 +11699,7 @@
         <v>17.9871638922567</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:9">
+    <row r="369" spans="1:9">
       <c r="A369">
         <v>368</v>
       </c>
@@ -11735,7 +11728,7 @@
         <v>18.5736014798085</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="1:9">
+    <row r="370" spans="1:9">
       <c r="A370">
         <v>369</v>
       </c>
@@ -11793,7 +11786,7 @@
         <v>19.0762473613814</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="1:9">
+    <row r="372" spans="1:9">
       <c r="A372">
         <v>371</v>
       </c>
@@ -11822,7 +11815,7 @@
         <v>14.7415629431563</v>
       </c>
     </row>
-    <row r="373" hidden="1" spans="1:9">
+    <row r="373" spans="1:9">
       <c r="A373">
         <v>372</v>
       </c>
@@ -11851,7 +11844,7 @@
         <v>17.0736618763358</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:9">
+    <row r="374" spans="1:9">
       <c r="A374">
         <v>373</v>
       </c>
@@ -11880,7 +11873,7 @@
         <v>17.705757343763</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:9">
+    <row r="375" spans="1:9">
       <c r="A375">
         <v>374</v>
       </c>
@@ -11938,7 +11931,7 @@
         <v>18.3585134463615</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:9">
+    <row r="377" spans="1:9">
       <c r="A377">
         <v>376</v>
       </c>
@@ -11967,7 +11960,7 @@
         <v>14.0225999003052</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:9">
+    <row r="378" spans="1:9">
       <c r="A378">
         <v>377</v>
       </c>
@@ -11996,7 +11989,7 @@
         <v>16.2378045008925</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:9">
+    <row r="379" spans="1:9">
       <c r="A379">
         <v>378</v>
       </c>
@@ -12025,7 +12018,7 @@
         <v>16.8964921616781</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="1:9">
+    <row r="380" spans="1:9">
       <c r="A380">
         <v>379</v>
       </c>
@@ -12083,7 +12076,7 @@
         <v>17.5477784252059</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:9">
+    <row r="382" spans="1:9">
       <c r="A382">
         <v>381</v>
       </c>
@@ -12112,7 +12105,7 @@
         <v>13.0977458027646</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:9">
+    <row r="383" spans="1:9">
       <c r="A383">
         <v>382</v>
       </c>
@@ -12141,7 +12134,7 @@
         <v>15.261867968267</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:9">
+    <row r="384" spans="1:9">
       <c r="A384">
         <v>383</v>
       </c>
@@ -12170,7 +12163,7 @@
         <v>15.7711140856524</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="1:9">
+    <row r="385" spans="1:9">
       <c r="A385">
         <v>384</v>
       </c>
@@ -12228,7 +12221,7 @@
         <v>17.4875278158852</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="1:9">
+    <row r="387" spans="1:9">
       <c r="A387">
         <v>386</v>
       </c>
@@ -12257,7 +12250,7 @@
         <v>23.6765014092044</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="1:9">
+    <row r="388" spans="1:9">
       <c r="A388">
         <v>387</v>
       </c>
@@ -12286,7 +12279,7 @@
         <v>22.3624318749663</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:9">
+    <row r="389" spans="1:9">
       <c r="A389">
         <v>388</v>
       </c>
@@ -12315,7 +12308,7 @@
         <v>20.6539806377012</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:9">
+    <row r="390" spans="1:9">
       <c r="A390">
         <v>389</v>
       </c>
@@ -12373,7 +12366,7 @@
         <v>17.6453443823683</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:9">
+    <row r="392" spans="1:9">
       <c r="A392">
         <v>391</v>
       </c>
@@ -12402,7 +12395,7 @@
         <v>23.139146648338</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:9">
+    <row r="393" spans="1:9">
       <c r="A393">
         <v>392</v>
       </c>
@@ -12431,7 +12424,7 @@
         <v>23.2107352806832</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:9">
+    <row r="394" spans="1:9">
       <c r="A394">
         <v>393</v>
       </c>
@@ -12460,7 +12453,7 @@
         <v>21.7423746030887</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:9">
+    <row r="395" spans="1:9">
       <c r="A395">
         <v>394</v>
       </c>
@@ -12518,7 +12511,7 @@
         <v>18.7990546732032</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:9">
+    <row r="397" spans="1:9">
       <c r="A397">
         <v>396</v>
       </c>
@@ -12547,7 +12540,7 @@
         <v>22.1138425024736</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="1:9">
+    <row r="398" spans="1:9">
       <c r="A398">
         <v>397</v>
       </c>
@@ -12576,7 +12569,7 @@
         <v>23.3717174357858</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:9">
+    <row r="399" spans="1:9">
       <c r="A399">
         <v>398</v>
       </c>
@@ -12605,7 +12598,7 @@
         <v>22.2604843639942</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:9">
+    <row r="400" spans="1:9">
       <c r="A400">
         <v>399</v>
       </c>
@@ -12663,7 +12656,7 @@
         <v>19.4908494739263</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:9">
+    <row r="402" spans="1:9">
       <c r="A402">
         <v>401</v>
       </c>
@@ -12692,7 +12685,7 @@
         <v>20.6407380929651</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:9">
+    <row r="403" spans="1:9">
       <c r="A403">
         <v>402</v>
       </c>
@@ -12721,7 +12714,7 @@
         <v>22.3079459610128</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:9">
+    <row r="404" spans="1:9">
       <c r="A404">
         <v>403</v>
       </c>
@@ -12750,7 +12743,7 @@
         <v>22.2681490517317</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:9">
+    <row r="405" spans="1:9">
       <c r="A405">
         <v>404</v>
       </c>
@@ -12808,7 +12801,7 @@
         <v>19.7868121360936</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="1:9">
+    <row r="407" spans="1:9">
       <c r="A407">
         <v>406</v>
       </c>
@@ -12837,7 +12830,7 @@
         <v>18.9443098578854</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="1:9">
+    <row r="408" spans="1:9">
       <c r="A408">
         <v>407</v>
       </c>
@@ -12866,7 +12859,7 @@
         <v>20.6908510334848</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="1:9">
+    <row r="409" spans="1:9">
       <c r="A409">
         <v>408</v>
       </c>
@@ -12895,7 +12888,7 @@
         <v>21.7731246276676</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="1:9">
+    <row r="410" spans="1:9">
       <c r="A410">
         <v>409</v>
       </c>
@@ -12953,7 +12946,7 @@
         <v>19.9184875488315</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="1:9">
+    <row r="412" spans="1:9">
       <c r="A412">
         <v>411</v>
       </c>
@@ -12982,7 +12975,7 @@
         <v>17.667553260177</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="1:9">
+    <row r="413" spans="1:9">
       <c r="A413">
         <v>412</v>
       </c>
@@ -13011,7 +13004,7 @@
         <v>19.3825901496941</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="1:9">
+    <row r="414" spans="1:9">
       <c r="A414">
         <v>413</v>
       </c>
@@ -13040,7 +13033,7 @@
         <v>20.7458129866019</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="1:9">
+    <row r="415" spans="1:9">
       <c r="A415">
         <v>414</v>
       </c>
@@ -13098,7 +13091,7 @@
         <v>19.9454882016713</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="1:9">
+    <row r="417" spans="1:9">
       <c r="A417">
         <v>416</v>
       </c>
@@ -13127,7 +13120,7 @@
         <v>17.0165878526219</v>
       </c>
     </row>
-    <row r="418" hidden="1" spans="1:9">
+    <row r="418" spans="1:9">
       <c r="A418">
         <v>417</v>
       </c>
@@ -13156,7 +13149,7 @@
         <v>18.701595395121</v>
       </c>
     </row>
-    <row r="419" hidden="1" spans="1:9">
+    <row r="419" spans="1:9">
       <c r="A419">
         <v>418</v>
       </c>
@@ -13185,7 +13178,7 @@
         <v>19.3918306364662</v>
       </c>
     </row>
-    <row r="420" hidden="1" spans="1:9">
+    <row r="420" spans="1:9">
       <c r="A420">
         <v>419</v>
       </c>
@@ -13243,7 +13236,7 @@
         <v>19.6331242839592</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="1:9">
+    <row r="422" spans="1:9">
       <c r="A422">
         <v>421</v>
       </c>
@@ -13272,7 +13265,7 @@
         <v>15.5825441529806</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="1:9">
+    <row r="423" spans="1:9">
       <c r="A423">
         <v>422</v>
       </c>
@@ -13301,7 +13294,7 @@
         <v>17.9687660849408</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="1:9">
+    <row r="424" spans="1:9">
       <c r="A424">
         <v>423</v>
       </c>
@@ -13330,7 +13323,7 @@
         <v>18.5697045562053</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:9">
+    <row r="425" spans="1:9">
       <c r="A425">
         <v>424</v>
       </c>
@@ -13388,7 +13381,7 @@
         <v>19.0780467583032</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="1:9">
+    <row r="427" spans="1:9">
       <c r="A427">
         <v>426</v>
       </c>
@@ -13417,7 +13410,7 @@
         <v>14.7391989379064</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:9">
+    <row r="428" spans="1:9">
       <c r="A428">
         <v>427</v>
       </c>
@@ -13446,7 +13439,7 @@
         <v>17.064918872646</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="1:9">
+    <row r="429" spans="1:9">
       <c r="A429">
         <v>428</v>
       </c>
@@ -13475,7 +13468,7 @@
         <v>17.7051595914399</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="1:9">
+    <row r="430" spans="1:9">
       <c r="A430">
         <v>429</v>
       </c>
@@ -13533,7 +13526,7 @@
         <v>18.3598413878502</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:9">
+    <row r="432" spans="1:9">
       <c r="A432">
         <v>431</v>
       </c>
@@ -13562,7 +13555,7 @@
         <v>13.9988213659595</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:9">
+    <row r="433" spans="1:9">
       <c r="A433">
         <v>432</v>
       </c>
@@ -13591,7 +13584,7 @@
         <v>16.2190148830695</v>
       </c>
     </row>
-    <row r="434" hidden="1" spans="1:9">
+    <row r="434" spans="1:9">
       <c r="A434">
         <v>433</v>
       </c>
@@ -13620,7 +13613,7 @@
         <v>16.8861330743487</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:9">
+    <row r="435" spans="1:9">
       <c r="A435">
         <v>434</v>
       </c>
@@ -13678,7 +13671,7 @@
         <v>17.5460933811402</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:9">
+    <row r="437" spans="1:9">
       <c r="A437">
         <v>436</v>
       </c>
@@ -13707,7 +13700,7 @@
         <v>13.1042608249551</v>
       </c>
     </row>
-    <row r="438" hidden="1" spans="1:9">
+    <row r="438" spans="1:9">
       <c r="A438">
         <v>437</v>
       </c>
@@ -13736,7 +13729,7 @@
         <v>15.2601178407577</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:9">
+    <row r="439" spans="1:9">
       <c r="A439">
         <v>438</v>
       </c>
@@ -13765,7 +13758,7 @@
         <v>15.7768013947111</v>
       </c>
     </row>
-    <row r="440" hidden="1" spans="1:9">
+    <row r="440" spans="1:9">
       <c r="A440">
         <v>439</v>
       </c>
@@ -13825,11 +13818,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I441">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="equal" val="0.28"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13842,7 +13830,7 @@
   <sheetPr/>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
